--- a/2MachineModel_SG_IBR.xlsx
+++ b/2MachineModel_SG_IBR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1BA6CD-09F2-425E-8D3C-16F8997E29BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DB139B-1FED-42F7-A1D4-99BA0BA6EDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="D4">
         <v>5</v>
